--- a/data/trans_dic/P15_5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15_5-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con nadie de su entorno con COVID-19</t>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>94,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>67,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>59,61%</t>
+          <t>59,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>73,12%</t>
+          <t>70,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>55,02%</t>
+          <t>52,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>69,3%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>55,85%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,16; 93,98</t>
+          <t>79,57; 93,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,27; 97,6</t>
+          <t>88,81; 97,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,24; 77,87</t>
+          <t>58,82; 74,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,64; 65,62</t>
+          <t>52,42; 66,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,05; 43,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,52; 91,2</t>
+          <t>85,98; 96,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,86; 96,2</t>
+          <t>89,8; 97,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,01; 77,57</t>
+          <t>64,97; 75,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,78; 62,25</t>
+          <t>47,89; 58,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,9; 45,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>86,75; 91,66</t>
+          <t>85,3; 93,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,73; 96,25</t>
+          <t>91,27; 96,81</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>69,23; 76,32</t>
+          <t>64,26; 73,5</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>52,93; 61,77</t>
+          <t>51,78; 60,1</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>34,26; 42,63</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,36%</t>
+          <t>74,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>85,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>41,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>60,77%</t>
+          <t>60,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>82,29%</t>
+          <t>77,64%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>60,56%</t>
+          <t>61,35%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>42,07%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,54; 85,36</t>
+          <t>68,41; 79,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,35; 91,0</t>
+          <t>80,97; 88,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,01; 64,45</t>
+          <t>56,6; 66,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,24; 46,62</t>
+          <t>36,36; 46,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,11; 33,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,37; 84,91</t>
+          <t>76,47; 85,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,98; 92,32</t>
+          <t>84,53; 91,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,87; 64,58</t>
+          <t>56,73; 65,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,06; 46,31</t>
+          <t>38,87; 47,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,89; 33,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80,27; 84,15</t>
+          <t>73,78; 80,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,93; 90,93</t>
+          <t>84,14; 89,37</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>57,94; 63,34</t>
+          <t>58,02; 64,53</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>38,54; 45,07</t>
+          <t>38,79; 45,02</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>25,89; 32,2</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>72,91%</t>
+          <t>70,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79,37%</t>
+          <t>80,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>81,02%</t>
+          <t>77,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>44,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>80,19%</t>
+          <t>79,03%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>45,67%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,77; 76,78</t>
+          <t>63,51; 76,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,99; 84,0</t>
+          <t>74,91; 84,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,45; 51,62</t>
+          <t>41,13; 51,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,39; 36,03</t>
+          <t>26,52; 36,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,97; 27,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,5; 74,75</t>
+          <t>59,89; 71,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,99; 84,5</t>
+          <t>72,64; 82,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,23; 48,77</t>
+          <t>39,77; 48,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,98; 35,35</t>
+          <t>26,78; 34,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,38; 30,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68,87; 75,02</t>
+          <t>63,14; 72,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,01; 83,33</t>
+          <t>75,19; 82,12</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>42,0; 48,92</t>
+          <t>41,85; 48,9</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>28,21; 34,34</t>
+          <t>27,97; 33,95</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 26,67</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>81,11%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>86,82%</t>
+          <t>90,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>58,85%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>80,4%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>64,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>80,75%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>91,26%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>59,0%</t>
+          <t>62,05%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,74; 83,04</t>
+          <t>82,2; 87,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,68; 88,8</t>
+          <t>87,15; 93,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,76; 61,64</t>
+          <t>53,13; 64,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,08; 45,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,4; 32,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,54; 82,22</t>
+          <t>79,77; 84,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>86,04; 89,85</t>
+          <t>89,69; 94,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,5; 61,6</t>
+          <t>59,47; 70,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,17; 44,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,32; 34,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79,22; 82,08</t>
+          <t>81,8; 85,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,0; 88,76</t>
+          <t>89,17; 92,96</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>57,27; 61,06</t>
+          <t>58,28; 66,09</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>39,94; 44,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>28,46; 32,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81,1%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>87,32%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>58,42%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41,9%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80,45%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>88,35%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>59,07%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>41,43%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>80,77%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>87,85%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>58,75%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>41,66%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78,79; 83,07</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>85,19; 89,21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>55,56; 61,31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38,72; 45,59</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78,45; 82,34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>86,56; 89,94</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>56,34; 61,38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39,04; 43,94</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>79,27; 82,19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>86,56; 89,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>56,99; 60,76</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>39,76; 44,14</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>198393</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>320796</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>360168</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>432712</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>241604</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>397940</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>449868</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>475909</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>439996</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>718736</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>810036</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>908622</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>180224; 211894</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>301268; 331616</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>311908; 397361</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>381794; 485393</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>225001; 251260</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>378711; 410823</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>414888; 485115</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>430354; 523658</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>416435; 457292</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>694503; 736649</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>751172; 859119</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>842512; 977781</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>439.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>597.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>611.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>507.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>481952</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>796207</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>747245</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>669971</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>578632</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>884798</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>749908</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>646678</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1060584</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1681006</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1497153</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1316649</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>445277; 514731</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>755070; 826772</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>683116; 802760</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>589876; 746602</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>546861; 611540</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>845308; 913458</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>699664; 802618</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>586178; 711775</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1007837; 1104881</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1625979; 1727173</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1415925; 1574632</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1214153; 1409217</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>319487</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>574686</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>390951</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>340448</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>351817</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>598682</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>418841</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>356261</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>671305</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1173368</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>809792</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>696709</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>289418; 346379</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>536050; 606449</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>347805; 439248</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>289994; 395054</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>318413; 381295</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>558736; 633654</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>374518; 460914</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>311548; 402008</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>623404; 715343</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1116415; 1219295</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>747949; 874101</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>631138; 766144</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>677.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>752.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1429.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>895.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1796092</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1316278</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>513049</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1722703</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1294327</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>494246</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3518795</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2610604</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1007295</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1738009; 1844511</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1269974; 1356306</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>457018; 558995</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1666926; 1771849</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1258696; 1323064</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>453841; 537476</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3438933; 3593209</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2550803; 2659478</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>946065; 1072873</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1077.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>994.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>765.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1274.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>944.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>652.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2351.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2174.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1709.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1173.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2795925</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3007967</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2011412</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1443131</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2894757</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3175747</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2112863</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1478848</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5690681</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6183715</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4124276</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2921979</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2716224; 2863628</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2934566; 3073022</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1913047; 2111008</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1333607; 1570027</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2822812; 2962617</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3111160; 3232891</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2015324; 2195688</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1393758; 1568525</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5585340; 5790847</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6092670; 6278197</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>4000405; 4265540</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2788673; 3095638</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>